--- a/docs/references/CS_AI_CHATBOT_DB.xlsx
+++ b/docs/references/CS_AI_CHATBOT_DB.xlsx
@@ -69,6 +69,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TB_API_METRIC_HOURLY" sheetId="60" state="visible" r:id="rId60"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TB_VECTOR_INDEX_STATUS" sheetId="61" state="visible" r:id="rId61"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TB_COST_RATE_CARD" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TB_RBAC_MATRIX" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TB_OPS_BLOCK" sheetId="64" state="visible" r:id="rId64"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'목차'!$A$7:$D$68</definedName>
@@ -9628,7 +9630,7 @@
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>TB_OPS_EVENT - 운영 이벤트(월 파티션)</t>
+          <t>TB_OPS_EVENT - ?? ???(append-only)</t>
         </is>
       </c>
       <c r="B1" s="53" t="n"/>
@@ -9718,12 +9720,12 @@
       <c r="G4" s="36" t="n"/>
     </row>
     <row r="5" ht="21" customHeight="1">
-      <c r="A5" s="37" t="inlineStr">
+      <c r="A5" s="32" t="inlineStr">
         <is>
           <t>tenant_id</t>
         </is>
       </c>
-      <c r="B5" s="37" t="inlineStr">
+      <c r="B5" s="32" t="inlineStr">
         <is>
           <t>uuid</t>
         </is>
@@ -9733,28 +9735,28 @@
           <t>NOT NULL</t>
         </is>
       </c>
-      <c r="D5" s="38" t="inlineStr">
+      <c r="D5" s="34" t="inlineStr">
         <is>
           <t>FK</t>
         </is>
       </c>
-      <c r="E5" s="37" t="n"/>
-      <c r="F5" s="39" t="inlineStr">
-        <is>
-          <t>테넌트 ID</t>
-        </is>
-      </c>
-      <c r="G5" s="39" t="n"/>
+      <c r="E5" s="35" t="n"/>
+      <c r="F5" s="36" t="inlineStr">
+        <is>
+          <t>??? ID</t>
+        </is>
+      </c>
+      <c r="G5" s="36" t="n"/>
     </row>
     <row r="6" ht="21" customHeight="1">
       <c r="A6" s="32" t="inlineStr">
         <is>
-          <t>event_type</t>
+          <t>trace_id</t>
         </is>
       </c>
       <c r="B6" s="32" t="inlineStr">
         <is>
-          <t>varchar(80)</t>
+          <t>uuid</t>
         </is>
       </c>
       <c r="C6" s="33" t="inlineStr">
@@ -9762,24 +9764,28 @@
           <t>NOT NULL</t>
         </is>
       </c>
-      <c r="D6" s="42" t="n"/>
-      <c r="E6" s="32" t="n"/>
+      <c r="D6" s="34" t="inlineStr">
+        <is>
+          <t>IDX</t>
+        </is>
+      </c>
+      <c r="E6" s="35" t="n"/>
       <c r="F6" s="36" t="inlineStr">
         <is>
-          <t>이벤트 유형</t>
+          <t>trace ID</t>
         </is>
       </c>
       <c r="G6" s="36" t="n"/>
     </row>
     <row r="7" ht="21" customHeight="1">
-      <c r="A7" s="37" t="inlineStr">
-        <is>
-          <t>severity</t>
-        </is>
-      </c>
-      <c r="B7" s="37" t="inlineStr">
-        <is>
-          <t>varchar(20)</t>
+      <c r="A7" s="32" t="inlineStr">
+        <is>
+          <t>event_time</t>
+        </is>
+      </c>
+      <c r="B7" s="32" t="inlineStr">
+        <is>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="C7" s="33" t="inlineStr">
@@ -9787,19 +9793,23 @@
           <t>NOT NULL</t>
         </is>
       </c>
-      <c r="D7" s="41" t="n"/>
-      <c r="E7" s="37" t="n"/>
-      <c r="F7" s="39" t="inlineStr">
-        <is>
-          <t>심각도</t>
-        </is>
-      </c>
-      <c r="G7" s="39" t="n"/>
+      <c r="D7" s="34" t="inlineStr">
+        <is>
+          <t>IDX</t>
+        </is>
+      </c>
+      <c r="E7" s="35" t="n"/>
+      <c r="F7" s="36" t="inlineStr">
+        <is>
+          <t>??? ??(UTC)</t>
+        </is>
+      </c>
+      <c r="G7" s="36" t="n"/>
     </row>
     <row r="8" ht="21" customHeight="1">
       <c r="A8" s="32" t="inlineStr">
         <is>
-          <t>component</t>
+          <t>event_type</t>
         </is>
       </c>
       <c r="B8" s="32" t="inlineStr">
@@ -9812,24 +9822,24 @@
           <t>NOT NULL</t>
         </is>
       </c>
-      <c r="D8" s="42" t="n"/>
-      <c r="E8" s="32" t="n"/>
+      <c r="D8" s="34" t="n"/>
+      <c r="E8" s="35" t="n"/>
       <c r="F8" s="36" t="inlineStr">
         <is>
-          <t>컴포넌트</t>
+          <t>??? ??</t>
         </is>
       </c>
       <c r="G8" s="36" t="n"/>
     </row>
     <row r="9" ht="21" customHeight="1">
-      <c r="A9" s="37" t="inlineStr">
-        <is>
-          <t>message</t>
-        </is>
-      </c>
-      <c r="B9" s="37" t="inlineStr">
-        <is>
-          <t>text</t>
+      <c r="A9" s="32" t="inlineStr">
+        <is>
+          <t>metric_key</t>
+        </is>
+      </c>
+      <c r="B9" s="32" t="inlineStr">
+        <is>
+          <t>varchar(80)</t>
         </is>
       </c>
       <c r="C9" s="33" t="inlineStr">
@@ -9837,97 +9847,101 @@
           <t>NOT NULL</t>
         </is>
       </c>
-      <c r="D9" s="41" t="n"/>
-      <c r="E9" s="37" t="n"/>
-      <c r="F9" s="39" t="inlineStr">
-        <is>
-          <t>메시지</t>
-        </is>
-      </c>
-      <c r="G9" s="39" t="n"/>
+      <c r="D9" s="34" t="inlineStr">
+        <is>
+          <t>IDX</t>
+        </is>
+      </c>
+      <c r="E9" s="35" t="n"/>
+      <c r="F9" s="36" t="inlineStr">
+        <is>
+          <t>?? ?</t>
+        </is>
+      </c>
+      <c r="G9" s="36" t="inlineStr">
+        <is>
+          <t>allowlist ??</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="21" customHeight="1">
       <c r="A10" s="32" t="inlineStr">
         <is>
-          <t>trace_id</t>
+          <t>metric_value</t>
         </is>
       </c>
       <c r="B10" s="32" t="inlineStr">
         <is>
-          <t>uuid</t>
-        </is>
-      </c>
-      <c r="C10" s="42" t="n"/>
-      <c r="D10" s="42" t="n"/>
-      <c r="E10" s="32" t="n"/>
+          <t>bigint</t>
+        </is>
+      </c>
+      <c r="C10" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D10" s="34" t="n"/>
+      <c r="E10" s="35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="F10" s="36" t="inlineStr">
         <is>
-          <t>추적 ID</t>
+          <t>?? ?</t>
         </is>
       </c>
       <c r="G10" s="36" t="n"/>
     </row>
     <row r="11" ht="21" customHeight="1">
-      <c r="A11" s="37" t="inlineStr">
+      <c r="A11" s="32" t="inlineStr">
+        <is>
+          <t>dimensions_json</t>
+        </is>
+      </c>
+      <c r="B11" s="32" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="C11" s="33" t="n"/>
+      <c r="D11" s="34" t="n"/>
+      <c r="E11" s="35" t="n"/>
+      <c r="F11" s="36" t="inlineStr">
+        <is>
+          <t>?? ???</t>
+        </is>
+      </c>
+      <c r="G11" s="36" t="n"/>
+    </row>
+    <row r="12" ht="21" customHeight="1">
+      <c r="A12" s="32" t="inlineStr">
         <is>
           <t>created_at</t>
         </is>
       </c>
-      <c r="B11" s="37" t="inlineStr">
-        <is>
-          <t>timestamptz</t>
-        </is>
-      </c>
-      <c r="C11" s="33" t="inlineStr">
-        <is>
-          <t>NOT NULL</t>
-        </is>
-      </c>
-      <c r="D11" s="34" t="inlineStr">
-        <is>
-          <t>PK</t>
-        </is>
-      </c>
-      <c r="E11" s="43" t="inlineStr">
+      <c r="B12" s="32" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C12" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D12" s="34" t="n"/>
+      <c r="E12" s="35" t="inlineStr">
         <is>
           <t>CURRENT_TIMESTAMP</t>
         </is>
       </c>
-      <c r="F11" s="39" t="inlineStr">
-        <is>
-          <t>생성 시각</t>
-        </is>
-      </c>
-      <c r="G11" s="39" t="n"/>
-    </row>
-    <row r="12" ht="21" customHeight="1">
-      <c r="A12" s="44" t="inlineStr">
-        <is>
-          <t>updated_at</t>
-        </is>
-      </c>
-      <c r="B12" s="44" t="inlineStr">
-        <is>
-          <t>timestamptz</t>
-        </is>
-      </c>
-      <c r="C12" s="45" t="inlineStr">
-        <is>
-          <t>NOT NULL</t>
-        </is>
-      </c>
-      <c r="D12" s="46" t="n"/>
-      <c r="E12" s="47" t="inlineStr">
-        <is>
-          <t>CURRENT_TIMESTAMP</t>
-        </is>
-      </c>
-      <c r="F12" s="48" t="inlineStr">
-        <is>
-          <t>수정 시각</t>
-        </is>
-      </c>
-      <c r="G12" s="48" t="n"/>
+      <c r="F12" s="36" t="inlineStr">
+        <is>
+          <t>?? ??</t>
+        </is>
+      </c>
+      <c r="G12" s="36" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:G12"/>
@@ -12755,7 +12769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -12779,7 +12793,7 @@
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>TB_AUDIT_LOG - 감사 로그(월 파티션)</t>
+          <t>TB_AUDIT_LOG - ?? ??</t>
         </is>
       </c>
       <c r="B1" s="53" t="n"/>
@@ -12869,12 +12883,12 @@
       <c r="G4" s="36" t="n"/>
     </row>
     <row r="5" ht="21" customHeight="1">
-      <c r="A5" s="37" t="inlineStr">
+      <c r="A5" s="32" t="inlineStr">
         <is>
           <t>tenant_id</t>
         </is>
       </c>
-      <c r="B5" s="37" t="inlineStr">
+      <c r="B5" s="32" t="inlineStr">
         <is>
           <t>uuid</t>
         </is>
@@ -12884,23 +12898,23 @@
           <t>NOT NULL</t>
         </is>
       </c>
-      <c r="D5" s="38" t="inlineStr">
+      <c r="D5" s="34" t="inlineStr">
         <is>
           <t>FK</t>
         </is>
       </c>
-      <c r="E5" s="37" t="n"/>
-      <c r="F5" s="39" t="inlineStr">
-        <is>
-          <t>테넌트 ID</t>
-        </is>
-      </c>
-      <c r="G5" s="39" t="n"/>
+      <c r="E5" s="35" t="n"/>
+      <c r="F5" s="36" t="inlineStr">
+        <is>
+          <t>??? ID</t>
+        </is>
+      </c>
+      <c r="G5" s="36" t="n"/>
     </row>
     <row r="6" ht="21" customHeight="1">
       <c r="A6" s="32" t="inlineStr">
         <is>
-          <t>actor_user_id</t>
+          <t>trace_id</t>
         </is>
       </c>
       <c r="B6" s="32" t="inlineStr">
@@ -12908,23 +12922,31 @@
           <t>uuid</t>
         </is>
       </c>
-      <c r="C6" s="42" t="n"/>
-      <c r="D6" s="42" t="n"/>
-      <c r="E6" s="32" t="n"/>
+      <c r="C6" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D6" s="34" t="inlineStr">
+        <is>
+          <t>IDX</t>
+        </is>
+      </c>
+      <c r="E6" s="35" t="n"/>
       <c r="F6" s="36" t="inlineStr">
         <is>
-          <t>행위자</t>
+          <t>?? ID</t>
         </is>
       </c>
       <c r="G6" s="36" t="n"/>
     </row>
     <row r="7" ht="21" customHeight="1">
-      <c r="A7" s="37" t="inlineStr">
+      <c r="A7" s="32" t="inlineStr">
         <is>
           <t>action_type</t>
         </is>
       </c>
-      <c r="B7" s="37" t="inlineStr">
+      <c r="B7" s="32" t="inlineStr">
         <is>
           <t>varchar(80)</t>
         </is>
@@ -12934,139 +12956,181 @@
           <t>NOT NULL</t>
         </is>
       </c>
-      <c r="D7" s="41" t="n"/>
-      <c r="E7" s="37" t="n"/>
-      <c r="F7" s="39" t="inlineStr">
-        <is>
-          <t>행위</t>
-        </is>
-      </c>
-      <c r="G7" s="39" t="n"/>
+      <c r="D7" s="34" t="inlineStr">
+        <is>
+          <t>IDX</t>
+        </is>
+      </c>
+      <c r="E7" s="35" t="n"/>
+      <c r="F7" s="36" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="G7" s="36" t="n"/>
     </row>
     <row r="8" ht="21" customHeight="1">
       <c r="A8" s="32" t="inlineStr">
         <is>
-          <t>target_type</t>
+          <t>actor_user_id</t>
         </is>
       </c>
       <c r="B8" s="32" t="inlineStr">
         <is>
+          <t>uuid</t>
+        </is>
+      </c>
+      <c r="C8" s="33" t="n"/>
+      <c r="D8" s="34" t="n"/>
+      <c r="E8" s="35" t="n"/>
+      <c r="F8" s="36" t="inlineStr">
+        <is>
+          <t>??? ??? ID</t>
+        </is>
+      </c>
+      <c r="G8" s="36" t="n"/>
+    </row>
+    <row r="9" ht="21" customHeight="1">
+      <c r="A9" s="32" t="inlineStr">
+        <is>
+          <t>actor_role</t>
+        </is>
+      </c>
+      <c r="B9" s="32" t="inlineStr">
+        <is>
           <t>varchar(80)</t>
         </is>
       </c>
-      <c r="C8" s="42" t="n"/>
-      <c r="D8" s="42" t="n"/>
-      <c r="E8" s="32" t="n"/>
-      <c r="F8" s="36" t="inlineStr">
-        <is>
-          <t>대상 유형</t>
-        </is>
-      </c>
-      <c r="G8" s="36" t="n"/>
-    </row>
-    <row r="9" ht="21" customHeight="1">
-      <c r="A9" s="37" t="inlineStr">
-        <is>
-          <t>target_id</t>
-        </is>
-      </c>
-      <c r="B9" s="37" t="inlineStr">
-        <is>
-          <t>varchar(120)</t>
-        </is>
-      </c>
-      <c r="C9" s="41" t="n"/>
-      <c r="D9" s="41" t="n"/>
-      <c r="E9" s="37" t="n"/>
-      <c r="F9" s="39" t="inlineStr">
-        <is>
-          <t>대상 ID</t>
-        </is>
-      </c>
-      <c r="G9" s="39" t="n"/>
+      <c r="C9" s="33" t="n"/>
+      <c r="D9" s="34" t="n"/>
+      <c r="E9" s="35" t="n"/>
+      <c r="F9" s="36" t="inlineStr">
+        <is>
+          <t>??? Role ??</t>
+        </is>
+      </c>
+      <c r="G9" s="36" t="n"/>
     </row>
     <row r="10" ht="21" customHeight="1">
       <c r="A10" s="32" t="inlineStr">
         <is>
-          <t>trace_id</t>
+          <t>target_type</t>
         </is>
       </c>
       <c r="B10" s="32" t="inlineStr">
         <is>
-          <t>uuid</t>
-        </is>
-      </c>
-      <c r="C10" s="42" t="n"/>
-      <c r="D10" s="42" t="n"/>
-      <c r="E10" s="32" t="n"/>
+          <t>varchar(80)</t>
+        </is>
+      </c>
+      <c r="C10" s="33" t="n"/>
+      <c r="D10" s="34" t="n"/>
+      <c r="E10" s="35" t="n"/>
       <c r="F10" s="36" t="inlineStr">
         <is>
-          <t>추적 ID</t>
+          <t>?? ??</t>
         </is>
       </c>
       <c r="G10" s="36" t="n"/>
     </row>
     <row r="11" ht="21" customHeight="1">
-      <c r="A11" s="37" t="inlineStr">
+      <c r="A11" s="32" t="inlineStr">
+        <is>
+          <t>target_id</t>
+        </is>
+      </c>
+      <c r="B11" s="32" t="inlineStr">
+        <is>
+          <t>varchar(200)</t>
+        </is>
+      </c>
+      <c r="C11" s="33" t="n"/>
+      <c r="D11" s="34" t="n"/>
+      <c r="E11" s="35" t="n"/>
+      <c r="F11" s="36" t="inlineStr">
+        <is>
+          <t>?? ID</t>
+        </is>
+      </c>
+      <c r="G11" s="36" t="n"/>
+    </row>
+    <row r="12" ht="21" customHeight="1">
+      <c r="A12" s="32" t="inlineStr">
+        <is>
+          <t>before_json</t>
+        </is>
+      </c>
+      <c r="B12" s="32" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="C12" s="33" t="n"/>
+      <c r="D12" s="34" t="n"/>
+      <c r="E12" s="35" t="n"/>
+      <c r="F12" s="36" t="inlineStr">
+        <is>
+          <t>?? ? ???</t>
+        </is>
+      </c>
+      <c r="G12" s="36" t="inlineStr">
+        <is>
+          <t>???? sanitizer ??</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="32" t="inlineStr">
+        <is>
+          <t>after_json</t>
+        </is>
+      </c>
+      <c r="B13" s="32" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="C13" s="33" t="n"/>
+      <c r="D13" s="34" t="n"/>
+      <c r="E13" s="35" t="n"/>
+      <c r="F13" s="36" t="inlineStr">
+        <is>
+          <t>?? ? ???</t>
+        </is>
+      </c>
+      <c r="G13" s="36" t="inlineStr">
+        <is>
+          <t>password/token/refresh_jti ?? ?? ??</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="32" t="inlineStr">
         <is>
           <t>created_at</t>
         </is>
       </c>
-      <c r="B11" s="37" t="inlineStr">
-        <is>
-          <t>timestamptz</t>
-        </is>
-      </c>
-      <c r="C11" s="33" t="inlineStr">
-        <is>
-          <t>NOT NULL</t>
-        </is>
-      </c>
-      <c r="D11" s="34" t="inlineStr">
-        <is>
-          <t>PK</t>
-        </is>
-      </c>
-      <c r="E11" s="43" t="inlineStr">
+      <c r="B14" s="32" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C14" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D14" s="34" t="n"/>
+      <c r="E14" s="35" t="inlineStr">
         <is>
           <t>CURRENT_TIMESTAMP</t>
         </is>
       </c>
-      <c r="F11" s="39" t="inlineStr">
-        <is>
-          <t>생성 시각</t>
-        </is>
-      </c>
-      <c r="G11" s="39" t="n"/>
-    </row>
-    <row r="12" ht="21" customHeight="1">
-      <c r="A12" s="44" t="inlineStr">
-        <is>
-          <t>updated_at</t>
-        </is>
-      </c>
-      <c r="B12" s="44" t="inlineStr">
-        <is>
-          <t>timestamptz</t>
-        </is>
-      </c>
-      <c r="C12" s="45" t="inlineStr">
-        <is>
-          <t>NOT NULL</t>
-        </is>
-      </c>
-      <c r="D12" s="46" t="n"/>
-      <c r="E12" s="47" t="inlineStr">
-        <is>
-          <t>CURRENT_TIMESTAMP</t>
-        </is>
-      </c>
-      <c r="F12" s="48" t="inlineStr">
-        <is>
-          <t>수정 시각</t>
-        </is>
-      </c>
-      <c r="G12" s="48" t="n"/>
+      <c r="F14" s="36" t="inlineStr">
+        <is>
+          <t>?? ??</t>
+        </is>
+      </c>
+      <c r="G14" s="36" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:G12"/>
@@ -16330,7 +16394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -16354,7 +16418,7 @@
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>TB_AUTH_SESSION - 인증 세션</t>
+          <t>TB_AUTH_SESSION - ?? ??</t>
         </is>
       </c>
       <c r="B1" s="53" t="n"/>
@@ -16444,12 +16508,12 @@
       <c r="G4" s="36" t="n"/>
     </row>
     <row r="5" ht="21" customHeight="1">
-      <c r="A5" s="37" t="inlineStr">
+      <c r="A5" s="32" t="inlineStr">
         <is>
           <t>tenant_id</t>
         </is>
       </c>
-      <c r="B5" s="37" t="inlineStr">
+      <c r="B5" s="32" t="inlineStr">
         <is>
           <t>uuid</t>
         </is>
@@ -16459,18 +16523,18 @@
           <t>NOT NULL</t>
         </is>
       </c>
-      <c r="D5" s="38" t="inlineStr">
+      <c r="D5" s="34" t="inlineStr">
         <is>
           <t>FK</t>
         </is>
       </c>
-      <c r="E5" s="37" t="n"/>
-      <c r="F5" s="39" t="inlineStr">
-        <is>
-          <t>테넌트 ID</t>
-        </is>
-      </c>
-      <c r="G5" s="39" t="n"/>
+      <c r="E5" s="35" t="n"/>
+      <c r="F5" s="36" t="inlineStr">
+        <is>
+          <t>??? ID</t>
+        </is>
+      </c>
+      <c r="G5" s="36" t="n"/>
     </row>
     <row r="6" ht="21" customHeight="1">
       <c r="A6" s="32" t="inlineStr">
@@ -16488,28 +16552,28 @@
           <t>NOT NULL</t>
         </is>
       </c>
-      <c r="D6" s="38" t="inlineStr">
+      <c r="D6" s="34" t="inlineStr">
         <is>
           <t>FK</t>
         </is>
       </c>
-      <c r="E6" s="32" t="n"/>
+      <c r="E6" s="35" t="n"/>
       <c r="F6" s="36" t="inlineStr">
         <is>
-          <t>사용자 ID</t>
+          <t>??? ID</t>
         </is>
       </c>
       <c r="G6" s="36" t="n"/>
     </row>
     <row r="7" ht="21" customHeight="1">
-      <c r="A7" s="37" t="inlineStr">
-        <is>
-          <t>session_token_hash</t>
-        </is>
-      </c>
-      <c r="B7" s="37" t="inlineStr">
-        <is>
-          <t>varchar(128)</t>
+      <c r="A7" s="32" t="inlineStr">
+        <is>
+          <t>session_family_id</t>
+        </is>
+      </c>
+      <c r="B7" s="32" t="inlineStr">
+        <is>
+          <t>uuid</t>
         </is>
       </c>
       <c r="C7" s="33" t="inlineStr">
@@ -16517,101 +16581,368 @@
           <t>NOT NULL</t>
         </is>
       </c>
-      <c r="D7" s="40" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="E7" s="37" t="n"/>
-      <c r="F7" s="39" t="inlineStr">
-        <is>
-          <t>세션 토큰 해시</t>
-        </is>
-      </c>
-      <c r="G7" s="39" t="n"/>
+      <c r="D7" s="34" t="inlineStr">
+        <is>
+          <t>IDX</t>
+        </is>
+      </c>
+      <c r="E7" s="35" t="n"/>
+      <c r="F7" s="36" t="inlineStr">
+        <is>
+          <t>refresh ?? ??? ID</t>
+        </is>
+      </c>
+      <c r="G7" s="36" t="inlineStr">
+        <is>
+          <t>reuse ?? ? family revoke</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="21" customHeight="1">
       <c r="A8" s="32" t="inlineStr">
         <is>
+          <t>session_token_hash</t>
+        </is>
+      </c>
+      <c r="B8" s="32" t="inlineStr">
+        <is>
+          <t>varchar(128)</t>
+        </is>
+      </c>
+      <c r="C8" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D8" s="34" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E8" s="35" t="n"/>
+      <c r="F8" s="36" t="inlineStr">
+        <is>
+          <t>refresh ?? ??</t>
+        </is>
+      </c>
+      <c r="G8" s="36" t="n"/>
+    </row>
+    <row r="9" ht="21" customHeight="1">
+      <c r="A9" s="32" t="inlineStr">
+        <is>
+          <t>refresh_jti_hash</t>
+        </is>
+      </c>
+      <c r="B9" s="32" t="inlineStr">
+        <is>
+          <t>varchar(128)</t>
+        </is>
+      </c>
+      <c r="C9" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D9" s="34" t="inlineStr">
+        <is>
+          <t>IDX</t>
+        </is>
+      </c>
+      <c r="E9" s="35" t="n"/>
+      <c r="F9" s="36" t="inlineStr">
+        <is>
+          <t>refresh jti ??</t>
+        </is>
+      </c>
+      <c r="G9" s="36" t="inlineStr">
+        <is>
+          <t>CAS/reuse ???</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="21" customHeight="1">
+      <c r="A10" s="32" t="inlineStr">
+        <is>
+          <t>parent_refresh_jti_hash</t>
+        </is>
+      </c>
+      <c r="B10" s="32" t="inlineStr">
+        <is>
+          <t>varchar(128)</t>
+        </is>
+      </c>
+      <c r="C10" s="33" t="n"/>
+      <c r="D10" s="34" t="n"/>
+      <c r="E10" s="35" t="n"/>
+      <c r="F10" s="36" t="inlineStr">
+        <is>
+          <t>?? refresh jti ??</t>
+        </is>
+      </c>
+      <c r="G10" s="36" t="inlineStr">
+        <is>
+          <t>rotation chain ??</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="32" t="inlineStr">
+        <is>
           <t>expires_at</t>
         </is>
       </c>
-      <c r="B8" s="32" t="inlineStr">
+      <c r="B11" s="32" t="inlineStr">
         <is>
           <t>timestamptz</t>
         </is>
       </c>
-      <c r="C8" s="33" t="inlineStr">
-        <is>
-          <t>NOT NULL</t>
-        </is>
-      </c>
-      <c r="D8" s="42" t="n"/>
-      <c r="E8" s="32" t="n"/>
-      <c r="F8" s="36" t="inlineStr">
-        <is>
-          <t>만료 시각</t>
-        </is>
-      </c>
-      <c r="G8" s="36" t="n"/>
-    </row>
-    <row r="9" ht="21" customHeight="1">
-      <c r="A9" s="37" t="inlineStr">
+      <c r="C11" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D11" s="34" t="n"/>
+      <c r="E11" s="35" t="n"/>
+      <c r="F11" s="36" t="inlineStr">
+        <is>
+          <t>?? ??</t>
+        </is>
+      </c>
+      <c r="G11" s="36" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="32" t="inlineStr">
+        <is>
+          <t>consumed_at</t>
+        </is>
+      </c>
+      <c r="B12" s="32" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C12" s="33" t="n"/>
+      <c r="D12" s="34" t="n"/>
+      <c r="E12" s="35" t="n"/>
+      <c r="F12" s="36" t="inlineStr">
+        <is>
+          <t>?? ?? ??</t>
+        </is>
+      </c>
+      <c r="G12" s="36" t="inlineStr">
+        <is>
+          <t>CAS ?? consumed_at IS NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="32" t="inlineStr">
+        <is>
+          <t>revoked_at</t>
+        </is>
+      </c>
+      <c r="B13" s="32" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C13" s="33" t="n"/>
+      <c r="D13" s="34" t="n"/>
+      <c r="E13" s="35" t="n"/>
+      <c r="F13" s="36" t="inlineStr">
+        <is>
+          <t>revoked ??</t>
+        </is>
+      </c>
+      <c r="G13" s="36" t="inlineStr">
+        <is>
+          <t>revoke/reuse ? ??</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="32" t="inlineStr">
+        <is>
+          <t>revoked_reason</t>
+        </is>
+      </c>
+      <c r="B14" s="32" t="inlineStr">
+        <is>
+          <t>varchar(120)</t>
+        </is>
+      </c>
+      <c r="C14" s="33" t="n"/>
+      <c r="D14" s="34" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="36" t="inlineStr">
+        <is>
+          <t>revoke ??</t>
+        </is>
+      </c>
+      <c r="G14" s="36" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="32" t="inlineStr">
+        <is>
+          <t>client_type</t>
+        </is>
+      </c>
+      <c r="B15" s="32" t="inlineStr">
+        <is>
+          <t>varchar(60)</t>
+        </is>
+      </c>
+      <c r="C15" s="33" t="n"/>
+      <c r="D15" s="34" t="n"/>
+      <c r="E15" s="35" t="n"/>
+      <c r="F15" s="36" t="inlineStr">
+        <is>
+          <t>????? ??</t>
+        </is>
+      </c>
+      <c r="G15" s="36" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="32" t="inlineStr">
+        <is>
+          <t>created_ip</t>
+        </is>
+      </c>
+      <c r="B16" s="32" t="inlineStr">
+        <is>
+          <t>varchar(64)</t>
+        </is>
+      </c>
+      <c r="C16" s="33" t="n"/>
+      <c r="D16" s="34" t="n"/>
+      <c r="E16" s="35" t="n"/>
+      <c r="F16" s="36" t="inlineStr">
+        <is>
+          <t>?? IP</t>
+        </is>
+      </c>
+      <c r="G16" s="36" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="32" t="inlineStr">
+        <is>
+          <t>consumed_ip</t>
+        </is>
+      </c>
+      <c r="B17" s="32" t="inlineStr">
+        <is>
+          <t>varchar(64)</t>
+        </is>
+      </c>
+      <c r="C17" s="33" t="n"/>
+      <c r="D17" s="34" t="n"/>
+      <c r="E17" s="35" t="n"/>
+      <c r="F17" s="36" t="inlineStr">
+        <is>
+          <t>?? IP</t>
+        </is>
+      </c>
+      <c r="G17" s="36" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="32" t="inlineStr">
+        <is>
+          <t>last_seen_at</t>
+        </is>
+      </c>
+      <c r="B18" s="32" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C18" s="33" t="n"/>
+      <c r="D18" s="34" t="n"/>
+      <c r="E18" s="35" t="n"/>
+      <c r="F18" s="36" t="inlineStr">
+        <is>
+          <t>??? ?? ??</t>
+        </is>
+      </c>
+      <c r="G18" s="36" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="32" t="inlineStr">
+        <is>
+          <t>trace_id</t>
+        </is>
+      </c>
+      <c r="B19" s="32" t="inlineStr">
+        <is>
+          <t>uuid</t>
+        </is>
+      </c>
+      <c r="C19" s="33" t="n"/>
+      <c r="D19" s="34" t="n"/>
+      <c r="E19" s="35" t="n"/>
+      <c r="F19" s="36" t="inlineStr">
+        <is>
+          <t>trace_id ??</t>
+        </is>
+      </c>
+      <c r="G19" s="36" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="32" t="inlineStr">
         <is>
           <t>created_at</t>
         </is>
       </c>
-      <c r="B9" s="37" t="inlineStr">
+      <c r="B20" s="32" t="inlineStr">
         <is>
           <t>timestamptz</t>
         </is>
       </c>
-      <c r="C9" s="33" t="inlineStr">
-        <is>
-          <t>NOT NULL</t>
-        </is>
-      </c>
-      <c r="D9" s="41" t="n"/>
-      <c r="E9" s="43" t="inlineStr">
+      <c r="C20" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D20" s="34" t="n"/>
+      <c r="E20" s="35" t="inlineStr">
         <is>
           <t>CURRENT_TIMESTAMP</t>
         </is>
       </c>
-      <c r="F9" s="39" t="inlineStr">
-        <is>
-          <t>생성 시각</t>
-        </is>
-      </c>
-      <c r="G9" s="39" t="n"/>
-    </row>
-    <row r="10" ht="21" customHeight="1">
-      <c r="A10" s="44" t="inlineStr">
+      <c r="F20" s="36" t="inlineStr">
+        <is>
+          <t>?? ??</t>
+        </is>
+      </c>
+      <c r="G20" s="36" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="32" t="inlineStr">
         <is>
           <t>updated_at</t>
         </is>
       </c>
-      <c r="B10" s="44" t="inlineStr">
+      <c r="B21" s="32" t="inlineStr">
         <is>
           <t>timestamptz</t>
         </is>
       </c>
-      <c r="C10" s="45" t="inlineStr">
-        <is>
-          <t>NOT NULL</t>
-        </is>
-      </c>
-      <c r="D10" s="46" t="n"/>
-      <c r="E10" s="47" t="inlineStr">
+      <c r="C21" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D21" s="34" t="n"/>
+      <c r="E21" s="35" t="inlineStr">
         <is>
           <t>CURRENT_TIMESTAMP</t>
         </is>
       </c>
-      <c r="F10" s="48" t="inlineStr">
-        <is>
-          <t>수정 시각</t>
-        </is>
-      </c>
-      <c r="G10" s="48" t="n"/>
+      <c r="F21" s="36" t="inlineStr">
+        <is>
+          <t>?? ??</t>
+        </is>
+      </c>
+      <c r="G21" s="36" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:G10"/>
@@ -16963,7 +17294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -16987,7 +17318,7 @@
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>TB_USER - 사용자</t>
+          <t>TB_USER - ???</t>
         </is>
       </c>
       <c r="B1" s="53" t="n"/>
@@ -17077,12 +17408,12 @@
       <c r="G4" s="36" t="n"/>
     </row>
     <row r="5" ht="21" customHeight="1">
-      <c r="A5" s="37" t="inlineStr">
+      <c r="A5" s="32" t="inlineStr">
         <is>
           <t>tenant_id</t>
         </is>
       </c>
-      <c r="B5" s="37" t="inlineStr">
+      <c r="B5" s="32" t="inlineStr">
         <is>
           <t>uuid</t>
         </is>
@@ -17092,18 +17423,18 @@
           <t>NOT NULL</t>
         </is>
       </c>
-      <c r="D5" s="38" t="inlineStr">
+      <c r="D5" s="34" t="inlineStr">
         <is>
           <t>FK</t>
         </is>
       </c>
-      <c r="E5" s="37" t="n"/>
-      <c r="F5" s="39" t="inlineStr">
-        <is>
-          <t>테넌트 ID</t>
-        </is>
-      </c>
-      <c r="G5" s="39" t="n"/>
+      <c r="E5" s="35" t="n"/>
+      <c r="F5" s="36" t="inlineStr">
+        <is>
+          <t>??? ID</t>
+        </is>
+      </c>
+      <c r="G5" s="36" t="n"/>
     </row>
     <row r="6" ht="21" customHeight="1">
       <c r="A6" s="32" t="inlineStr">
@@ -17121,26 +17452,26 @@
           <t>NOT NULL</t>
         </is>
       </c>
-      <c r="D6" s="40" t="inlineStr">
+      <c r="D6" s="34" t="inlineStr">
         <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="E6" s="32" t="n"/>
+      <c r="E6" s="35" t="n"/>
       <c r="F6" s="36" t="inlineStr">
         <is>
-          <t>로그인 ID</t>
+          <t>??? ID</t>
         </is>
       </c>
       <c r="G6" s="36" t="n"/>
     </row>
     <row r="7" ht="21" customHeight="1">
-      <c r="A7" s="37" t="inlineStr">
+      <c r="A7" s="32" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="B7" s="37" t="inlineStr">
+      <c r="B7" s="32" t="inlineStr">
         <is>
           <t>varchar(120)</t>
         </is>
@@ -17150,14 +17481,14 @@
           <t>NOT NULL</t>
         </is>
       </c>
-      <c r="D7" s="41" t="n"/>
-      <c r="E7" s="37" t="n"/>
-      <c r="F7" s="39" t="inlineStr">
-        <is>
-          <t>표시 이름</t>
-        </is>
-      </c>
-      <c r="G7" s="39" t="n"/>
+      <c r="D7" s="34" t="n"/>
+      <c r="E7" s="35" t="n"/>
+      <c r="F7" s="36" t="inlineStr">
+        <is>
+          <t>?? ??</t>
+        </is>
+      </c>
+      <c r="G7" s="36" t="n"/>
     </row>
     <row r="8" ht="21" customHeight="1">
       <c r="A8" s="32" t="inlineStr">
@@ -17175,7 +17506,7 @@
           <t>NOT NULL</t>
         </is>
       </c>
-      <c r="D8" s="42" t="n"/>
+      <c r="D8" s="34" t="n"/>
       <c r="E8" s="35" t="inlineStr">
         <is>
           <t>'active'</t>
@@ -17183,68 +17514,209 @@
       </c>
       <c r="F8" s="36" t="inlineStr">
         <is>
-          <t>상태</t>
+          <t>??</t>
         </is>
       </c>
       <c r="G8" s="36" t="n"/>
     </row>
     <row r="9" ht="21" customHeight="1">
-      <c r="A9" s="37" t="inlineStr">
+      <c r="A9" s="32" t="inlineStr">
+        <is>
+          <t>permission_version</t>
+        </is>
+      </c>
+      <c r="B9" s="32" t="inlineStr">
+        <is>
+          <t>bigint</t>
+        </is>
+      </c>
+      <c r="C9" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D9" s="34" t="n"/>
+      <c r="E9" s="35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F9" s="36" t="inlineStr">
+        <is>
+          <t>?? ??(stale token ???)</t>
+        </is>
+      </c>
+      <c r="G9" s="36" t="n"/>
+    </row>
+    <row r="10" ht="21" customHeight="1">
+      <c r="A10" s="32" t="inlineStr">
+        <is>
+          <t>admin_level</t>
+        </is>
+      </c>
+      <c r="B10" s="32" t="inlineStr">
+        <is>
+          <t>varchar(30)</t>
+        </is>
+      </c>
+      <c r="C10" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D10" s="34" t="n"/>
+      <c r="E10" s="35" t="inlineStr">
+        <is>
+          <t>'MANAGER'</t>
+        </is>
+      </c>
+      <c r="F10" s="36" t="inlineStr">
+        <is>
+          <t>ADMIN ?? ?? ??</t>
+        </is>
+      </c>
+      <c r="G10" s="36" t="inlineStr">
+        <is>
+          <t>ROLE ??</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="32" t="inlineStr">
+        <is>
+          <t>failed_login_count</t>
+        </is>
+      </c>
+      <c r="B11" s="32" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="C11" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D11" s="34" t="n"/>
+      <c r="E11" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="36" t="inlineStr">
+        <is>
+          <t>??? ?? ?? ?</t>
+        </is>
+      </c>
+      <c r="G11" s="36" t="inlineStr">
+        <is>
+          <t>lockout ?? ??</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="32" t="inlineStr">
+        <is>
+          <t>locked_until</t>
+        </is>
+      </c>
+      <c r="B12" s="32" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C12" s="33" t="n"/>
+      <c r="D12" s="34" t="n"/>
+      <c r="E12" s="35" t="n"/>
+      <c r="F12" s="36" t="inlineStr">
+        <is>
+          <t>?? ?? ?? ??</t>
+        </is>
+      </c>
+      <c r="G12" s="36" t="inlineStr">
+        <is>
+          <t>AUTH_LOCKED Retry-After ?? ??</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="32" t="inlineStr">
+        <is>
+          <t>last_failed_at</t>
+        </is>
+      </c>
+      <c r="B13" s="32" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C13" s="33" t="n"/>
+      <c r="D13" s="34" t="n"/>
+      <c r="E13" s="35" t="n"/>
+      <c r="F13" s="36" t="inlineStr">
+        <is>
+          <t>??? ?? ??</t>
+        </is>
+      </c>
+      <c r="G13" s="36" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="32" t="inlineStr">
         <is>
           <t>created_at</t>
         </is>
       </c>
-      <c r="B9" s="37" t="inlineStr">
+      <c r="B14" s="32" t="inlineStr">
         <is>
           <t>timestamptz</t>
         </is>
       </c>
-      <c r="C9" s="33" t="inlineStr">
-        <is>
-          <t>NOT NULL</t>
-        </is>
-      </c>
-      <c r="D9" s="41" t="n"/>
-      <c r="E9" s="43" t="inlineStr">
+      <c r="C14" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D14" s="34" t="n"/>
+      <c r="E14" s="35" t="inlineStr">
         <is>
           <t>CURRENT_TIMESTAMP</t>
         </is>
       </c>
-      <c r="F9" s="39" t="inlineStr">
-        <is>
-          <t>생성 시각</t>
-        </is>
-      </c>
-      <c r="G9" s="39" t="n"/>
-    </row>
-    <row r="10" ht="21" customHeight="1">
-      <c r="A10" s="44" t="inlineStr">
+      <c r="F14" s="36" t="inlineStr">
+        <is>
+          <t>?? ??</t>
+        </is>
+      </c>
+      <c r="G14" s="36" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="32" t="inlineStr">
         <is>
           <t>updated_at</t>
         </is>
       </c>
-      <c r="B10" s="44" t="inlineStr">
+      <c r="B15" s="32" t="inlineStr">
         <is>
           <t>timestamptz</t>
         </is>
       </c>
-      <c r="C10" s="45" t="inlineStr">
-        <is>
-          <t>NOT NULL</t>
-        </is>
-      </c>
-      <c r="D10" s="46" t="n"/>
-      <c r="E10" s="47" t="inlineStr">
+      <c r="C15" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D15" s="34" t="n"/>
+      <c r="E15" s="35" t="inlineStr">
         <is>
           <t>CURRENT_TIMESTAMP</t>
         </is>
       </c>
-      <c r="F10" s="48" t="inlineStr">
-        <is>
-          <t>수정 시각</t>
-        </is>
-      </c>
-      <c r="G10" s="48" t="n"/>
+      <c r="F15" s="36" t="inlineStr">
+        <is>
+          <t>?? ??</t>
+        </is>
+      </c>
+      <c r="G15" s="36" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:G10"/>
@@ -20952,7 +21424,7 @@
     <row r="4" ht="21" customHeight="1">
       <c r="A4" s="32" t="inlineStr">
         <is>
-          <t>metric_id</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B4" s="32" t="inlineStr">
@@ -20977,49 +21449,49 @@
       </c>
       <c r="F4" s="36" t="inlineStr">
         <is>
-          <t>Metric row ID</t>
-        </is>
-      </c>
-      <c r="G4" s="36" t="inlineStr">
-        <is>
-          <t>PK(metric_id). Because tenant_id can be NULL for unauth traffic, surrogate PK is used. Producer: streaming/hourly rollup pipeline. Refresh: near-real-time + hourly finalize.</t>
-        </is>
-      </c>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="G4" s="36" t="n"/>
     </row>
     <row r="5" ht="21" customHeight="1">
-      <c r="A5" s="37" t="inlineStr">
+      <c r="A5" s="32" t="inlineStr">
         <is>
           <t>tenant_id</t>
         </is>
       </c>
-      <c r="B5" s="37" t="inlineStr">
+      <c r="B5" s="32" t="inlineStr">
         <is>
           <t>uuid</t>
         </is>
       </c>
-      <c r="C5" s="41" t="n"/>
-      <c r="D5" s="41" t="n"/>
-      <c r="E5" s="37" t="n"/>
-      <c r="F5" s="39" t="inlineStr">
-        <is>
-          <t>Tenant ID (nullable for public traffic)</t>
-        </is>
-      </c>
-      <c r="G5" s="39" t="inlineStr">
-        <is>
-          <t>FK optional for ingest performance. Recommended unique key: (coalesce(tenant_id, zero_uuid), metric_hour, endpoint, method, status_code).</t>
-        </is>
-      </c>
+      <c r="C5" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D5" s="34" t="inlineStr">
+        <is>
+          <t>FK</t>
+        </is>
+      </c>
+      <c r="E5" s="35" t="n"/>
+      <c r="F5" s="36" t="inlineStr">
+        <is>
+          <t>??? ID</t>
+        </is>
+      </c>
+      <c r="G5" s="36" t="n"/>
     </row>
     <row r="6" ht="21" customHeight="1">
       <c r="A6" s="32" t="inlineStr">
         <is>
-          <t>metric_hour</t>
+          <t>hour_bucket_utc</t>
         </is>
       </c>
       <c r="B6" s="32" t="inlineStr">
         <is>
-          <t>timestamptz</t>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="C6" s="33" t="inlineStr">
@@ -21027,28 +21499,32 @@
           <t>NOT NULL</t>
         </is>
       </c>
-      <c r="D6" s="42" t="n"/>
-      <c r="E6" s="32" t="n"/>
+      <c r="D6" s="34" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E6" s="35" t="n"/>
       <c r="F6" s="36" t="inlineStr">
         <is>
-          <t>Hour bucket timestamp</t>
+          <t>UTC hour bucket</t>
         </is>
       </c>
       <c r="G6" s="36" t="inlineStr">
         <is>
-          <t>Recommended indexes: (metric_hour), (endpoint, metric_hour).</t>
+          <t>UTC ??</t>
         </is>
       </c>
     </row>
     <row r="7" ht="21" customHeight="1">
-      <c r="A7" s="37" t="inlineStr">
-        <is>
-          <t>endpoint</t>
-        </is>
-      </c>
-      <c r="B7" s="37" t="inlineStr">
-        <is>
-          <t>varchar(255)</t>
+      <c r="A7" s="32" t="inlineStr">
+        <is>
+          <t>metric_key</t>
+        </is>
+      </c>
+      <c r="B7" s="32" t="inlineStr">
+        <is>
+          <t>varchar(80)</t>
         </is>
       </c>
       <c r="C7" s="33" t="inlineStr">
@@ -21056,24 +21532,32 @@
           <t>NOT NULL</t>
         </is>
       </c>
-      <c r="D7" s="41" t="n"/>
-      <c r="E7" s="37" t="n"/>
-      <c r="F7" s="39" t="inlineStr">
-        <is>
-          <t>API endpoint path</t>
-        </is>
-      </c>
-      <c r="G7" s="39" t="n"/>
+      <c r="D7" s="34" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E7" s="35" t="n"/>
+      <c r="F7" s="36" t="inlineStr">
+        <is>
+          <t>??? ?</t>
+        </is>
+      </c>
+      <c r="G7" s="36" t="inlineStr">
+        <is>
+          <t>allowlist ??</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="21" customHeight="1">
       <c r="A8" s="32" t="inlineStr">
         <is>
-          <t>method</t>
+          <t>metric_value</t>
         </is>
       </c>
       <c r="B8" s="32" t="inlineStr">
         <is>
-          <t>varchar(10)</t>
+          <t>bigint</t>
         </is>
       </c>
       <c r="C8" s="33" t="inlineStr">
@@ -21081,24 +21565,28 @@
           <t>NOT NULL</t>
         </is>
       </c>
-      <c r="D8" s="42" t="n"/>
-      <c r="E8" s="32" t="n"/>
+      <c r="D8" s="34" t="n"/>
+      <c r="E8" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="F8" s="36" t="inlineStr">
         <is>
-          <t>HTTP method</t>
+          <t>?? ?</t>
         </is>
       </c>
       <c r="G8" s="36" t="n"/>
     </row>
     <row r="9" ht="21" customHeight="1">
-      <c r="A9" s="37" t="inlineStr">
-        <is>
-          <t>status_code</t>
-        </is>
-      </c>
-      <c r="B9" s="37" t="inlineStr">
-        <is>
-          <t>integer</t>
+      <c r="A9" s="32" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="B9" s="32" t="inlineStr">
+        <is>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="C9" s="33" t="inlineStr">
@@ -21106,245 +21594,101 @@
           <t>NOT NULL</t>
         </is>
       </c>
-      <c r="D9" s="41" t="n"/>
-      <c r="E9" s="37" t="n"/>
-      <c r="F9" s="39" t="inlineStr">
-        <is>
-          <t>HTTP status code</t>
-        </is>
-      </c>
-      <c r="G9" s="39" t="n"/>
+      <c r="D9" s="34" t="n"/>
+      <c r="E9" s="35" t="inlineStr">
+        <is>
+          <t>CURRENT_TIMESTAMP</t>
+        </is>
+      </c>
+      <c r="F9" s="36" t="inlineStr">
+        <is>
+          <t>?? ??</t>
+        </is>
+      </c>
+      <c r="G9" s="36" t="n"/>
     </row>
     <row r="10" ht="21" customHeight="1">
-      <c r="A10" s="32" t="inlineStr">
-        <is>
-          <t>request_count</t>
-        </is>
-      </c>
-      <c r="B10" s="32" t="inlineStr">
-        <is>
-          <t>bigint</t>
-        </is>
-      </c>
-      <c r="C10" s="33" t="inlineStr">
-        <is>
-          <t>NOT NULL</t>
-        </is>
-      </c>
-      <c r="D10" s="42" t="n"/>
+      <c r="A10" s="32" t="n"/>
+      <c r="B10" s="32" t="n"/>
+      <c r="C10" s="33" t="n"/>
+      <c r="D10" s="34" t="inlineStr">
+        <is>
+          <t>UNIQUE</t>
+        </is>
+      </c>
       <c r="E10" s="35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(tenant_id, hour_bucket_utc, metric_key)</t>
         </is>
       </c>
       <c r="F10" s="36" t="inlineStr">
         <is>
-          <t>Request count</t>
+          <t>idempotent upsert ?</t>
         </is>
       </c>
       <c r="G10" s="36" t="n"/>
     </row>
     <row r="11" ht="21" customHeight="1">
-      <c r="A11" s="37" t="inlineStr">
-        <is>
-          <t>error_count</t>
-        </is>
-      </c>
-      <c r="B11" s="37" t="inlineStr">
-        <is>
-          <t>bigint</t>
-        </is>
-      </c>
-      <c r="C11" s="33" t="inlineStr">
-        <is>
-          <t>NOT NULL</t>
-        </is>
-      </c>
+      <c r="A11" s="37" t="n"/>
+      <c r="B11" s="37" t="n"/>
+      <c r="C11" s="33" t="n"/>
       <c r="D11" s="41" t="n"/>
-      <c r="E11" s="43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" s="39" t="inlineStr">
-        <is>
-          <t>Error count</t>
-        </is>
-      </c>
+      <c r="E11" s="43" t="n"/>
+      <c r="F11" s="39" t="n"/>
       <c r="G11" s="39" t="n"/>
     </row>
     <row r="12" ht="21" customHeight="1">
-      <c r="A12" s="32" t="inlineStr">
-        <is>
-          <t>p50_latency_ms</t>
-        </is>
-      </c>
-      <c r="B12" s="32" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="C12" s="33" t="inlineStr">
-        <is>
-          <t>NOT NULL</t>
-        </is>
-      </c>
+      <c r="A12" s="32" t="n"/>
+      <c r="B12" s="32" t="n"/>
+      <c r="C12" s="33" t="n"/>
       <c r="D12" s="42" t="n"/>
-      <c r="E12" s="35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" s="36" t="inlineStr">
-        <is>
-          <t>P50 latency ms</t>
-        </is>
-      </c>
+      <c r="E12" s="35" t="n"/>
+      <c r="F12" s="36" t="n"/>
       <c r="G12" s="36" t="n"/>
     </row>
     <row r="13" ht="21" customHeight="1">
-      <c r="A13" s="37" t="inlineStr">
-        <is>
-          <t>p95_latency_ms</t>
-        </is>
-      </c>
-      <c r="B13" s="37" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="C13" s="33" t="inlineStr">
-        <is>
-          <t>NOT NULL</t>
-        </is>
-      </c>
+      <c r="A13" s="37" t="n"/>
+      <c r="B13" s="37" t="n"/>
+      <c r="C13" s="33" t="n"/>
       <c r="D13" s="41" t="n"/>
-      <c r="E13" s="43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" s="39" t="inlineStr">
-        <is>
-          <t>P95 latency ms</t>
-        </is>
-      </c>
+      <c r="E13" s="43" t="n"/>
+      <c r="F13" s="39" t="n"/>
       <c r="G13" s="39" t="n"/>
     </row>
     <row r="14" ht="21" customHeight="1">
-      <c r="A14" s="32" t="inlineStr">
-        <is>
-          <t>p99_latency_ms</t>
-        </is>
-      </c>
-      <c r="B14" s="32" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="C14" s="33" t="inlineStr">
-        <is>
-          <t>NOT NULL</t>
-        </is>
-      </c>
+      <c r="A14" s="32" t="n"/>
+      <c r="B14" s="32" t="n"/>
+      <c r="C14" s="33" t="n"/>
       <c r="D14" s="42" t="n"/>
-      <c r="E14" s="35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" s="36" t="inlineStr">
-        <is>
-          <t>P99 latency ms</t>
-        </is>
-      </c>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="36" t="n"/>
       <c r="G14" s="36" t="n"/>
     </row>
     <row r="15" ht="21" customHeight="1">
-      <c r="A15" s="37" t="inlineStr">
-        <is>
-          <t>bytes_in</t>
-        </is>
-      </c>
-      <c r="B15" s="37" t="inlineStr">
-        <is>
-          <t>bigint</t>
-        </is>
-      </c>
-      <c r="C15" s="33" t="inlineStr">
-        <is>
-          <t>NOT NULL</t>
-        </is>
-      </c>
+      <c r="A15" s="37" t="n"/>
+      <c r="B15" s="37" t="n"/>
+      <c r="C15" s="33" t="n"/>
       <c r="D15" s="41" t="n"/>
-      <c r="E15" s="43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" s="39" t="inlineStr">
-        <is>
-          <t>Inbound bytes</t>
-        </is>
-      </c>
+      <c r="E15" s="43" t="n"/>
+      <c r="F15" s="39" t="n"/>
       <c r="G15" s="39" t="n"/>
     </row>
     <row r="16" ht="21" customHeight="1">
-      <c r="A16" s="32" t="inlineStr">
-        <is>
-          <t>bytes_out</t>
-        </is>
-      </c>
-      <c r="B16" s="32" t="inlineStr">
-        <is>
-          <t>bigint</t>
-        </is>
-      </c>
-      <c r="C16" s="33" t="inlineStr">
-        <is>
-          <t>NOT NULL</t>
-        </is>
-      </c>
+      <c r="A16" s="32" t="n"/>
+      <c r="B16" s="32" t="n"/>
+      <c r="C16" s="33" t="n"/>
       <c r="D16" s="42" t="n"/>
-      <c r="E16" s="35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" s="36" t="inlineStr">
-        <is>
-          <t>Outbound bytes</t>
-        </is>
-      </c>
+      <c r="E16" s="35" t="n"/>
+      <c r="F16" s="36" t="n"/>
       <c r="G16" s="36" t="n"/>
     </row>
     <row r="17" ht="21" customHeight="1">
-      <c r="A17" s="49" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="B17" s="49" t="inlineStr">
-        <is>
-          <t>timestamptz</t>
-        </is>
-      </c>
-      <c r="C17" s="45" t="inlineStr">
-        <is>
-          <t>NOT NULL</t>
-        </is>
-      </c>
+      <c r="A17" s="49" t="n"/>
+      <c r="B17" s="49" t="n"/>
+      <c r="C17" s="45" t="n"/>
       <c r="D17" s="50" t="n"/>
-      <c r="E17" s="51" t="inlineStr">
-        <is>
-          <t>CURRENT_TIMESTAMP</t>
-        </is>
-      </c>
-      <c r="F17" s="52" t="inlineStr">
-        <is>
-          <t>Created at</t>
-        </is>
-      </c>
+      <c r="E17" s="51" t="n"/>
+      <c r="F17" s="52" t="n"/>
       <c r="G17" s="52" t="n"/>
     </row>
   </sheetData>
@@ -22196,6 +22540,784 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:G14"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="40" customWidth="1" min="6" max="6"/>
+    <col width="38" customWidth="1" min="7" max="7"/>
+    <col width="8.710000000000001" customWidth="1" min="8" max="8"/>
+    <col width="24.86" customWidth="1" min="9" max="9"/>
+    <col width="38" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="14" t="inlineStr">
+        <is>
+          <t>TB_RBAC_MATRIX - Resource ?? ????</t>
+        </is>
+      </c>
+      <c r="B1" s="53" t="n"/>
+      <c r="C1" s="53" t="n"/>
+      <c r="D1" s="53" t="n"/>
+      <c r="E1" s="53" t="n"/>
+      <c r="F1" s="53" t="n"/>
+      <c r="G1" s="54" t="n"/>
+    </row>
+    <row r="2" ht="8" customHeight="1">
+      <c r="A2" s="30" t="n"/>
+      <c r="B2" s="30" t="n"/>
+      <c r="C2" s="30" t="n"/>
+      <c r="D2" s="30" t="n"/>
+      <c r="E2" s="30" t="n"/>
+      <c r="F2" s="30" t="n"/>
+      <c r="G2" s="30" t="n"/>
+    </row>
+    <row r="3" ht="24" customHeight="1">
+      <c r="A3" s="31" t="inlineStr">
+        <is>
+          <t>컬럼명</t>
+        </is>
+      </c>
+      <c r="B3" s="31" t="inlineStr">
+        <is>
+          <t>데이터타입</t>
+        </is>
+      </c>
+      <c r="C3" s="31" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D3" s="31" t="inlineStr">
+        <is>
+          <t>KEY</t>
+        </is>
+      </c>
+      <c r="E3" s="31" t="inlineStr">
+        <is>
+          <t>기본값</t>
+        </is>
+      </c>
+      <c r="F3" s="31" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+      <c r="G3" s="31" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1">
+      <c r="A4" s="32" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B4" s="32" t="inlineStr">
+        <is>
+          <t>uuid</t>
+        </is>
+      </c>
+      <c r="C4" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D4" s="34" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+      <c r="E4" s="35" t="inlineStr">
+        <is>
+          <t>gen_random_uuid()</t>
+        </is>
+      </c>
+      <c r="F4" s="36" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="G4" s="36" t="n"/>
+    </row>
+    <row r="5" ht="21" customHeight="1">
+      <c r="A5" s="32" t="inlineStr">
+        <is>
+          <t>tenant_id</t>
+        </is>
+      </c>
+      <c r="B5" s="32" t="inlineStr">
+        <is>
+          <t>uuid</t>
+        </is>
+      </c>
+      <c r="C5" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D5" s="34" t="inlineStr">
+        <is>
+          <t>FK</t>
+        </is>
+      </c>
+      <c r="E5" s="35" t="n"/>
+      <c r="F5" s="36" t="inlineStr">
+        <is>
+          <t>??? ID</t>
+        </is>
+      </c>
+      <c r="G5" s="36" t="n"/>
+    </row>
+    <row r="6" ht="21" customHeight="1">
+      <c r="A6" s="32" t="inlineStr">
+        <is>
+          <t>resource_key</t>
+        </is>
+      </c>
+      <c r="B6" s="32" t="inlineStr">
+        <is>
+          <t>varchar(120)</t>
+        </is>
+      </c>
+      <c r="C6" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D6" s="34" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E6" s="35" t="n"/>
+      <c r="F6" s="36" t="inlineStr">
+        <is>
+          <t>??? ?</t>
+        </is>
+      </c>
+      <c r="G6" s="36" t="n"/>
+    </row>
+    <row r="7" ht="21" customHeight="1">
+      <c r="A7" s="32" t="inlineStr">
+        <is>
+          <t>role_code</t>
+        </is>
+      </c>
+      <c r="B7" s="32" t="inlineStr">
+        <is>
+          <t>varchar(30)</t>
+        </is>
+      </c>
+      <c r="C7" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D7" s="34" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E7" s="35" t="n"/>
+      <c r="F7" s="36" t="inlineStr">
+        <is>
+          <t>?? ??</t>
+        </is>
+      </c>
+      <c r="G7" s="36" t="inlineStr">
+        <is>
+          <t>AGENT/CUSTOMER/ADMIN/OPS/SYSTEM</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="21" customHeight="1">
+      <c r="A8" s="32" t="inlineStr">
+        <is>
+          <t>admin_level</t>
+        </is>
+      </c>
+      <c r="B8" s="32" t="inlineStr">
+        <is>
+          <t>varchar(30)</t>
+        </is>
+      </c>
+      <c r="C8" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D8" s="34" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E8" s="35" t="inlineStr">
+        <is>
+          <t>'MANAGER'</t>
+        </is>
+      </c>
+      <c r="F8" s="36" t="inlineStr">
+        <is>
+          <t>ADMIN ?? ?? ??</t>
+        </is>
+      </c>
+      <c r="G8" s="36" t="inlineStr">
+        <is>
+          <t>MANAGER/SYSTEM_ADMIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="21" customHeight="1">
+      <c r="A9" s="32" t="inlineStr">
+        <is>
+          <t>allowed</t>
+        </is>
+      </c>
+      <c r="B9" s="32" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="C9" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D9" s="34" t="n"/>
+      <c r="E9" s="35" t="n"/>
+      <c r="F9" s="36" t="inlineStr">
+        <is>
+          <t>?? ??</t>
+        </is>
+      </c>
+      <c r="G9" s="36" t="n"/>
+    </row>
+    <row r="10" ht="21" customHeight="1">
+      <c r="A10" s="32" t="inlineStr">
+        <is>
+          <t>permission_version</t>
+        </is>
+      </c>
+      <c r="B10" s="32" t="inlineStr">
+        <is>
+          <t>bigint</t>
+        </is>
+      </c>
+      <c r="C10" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D10" s="34" t="n"/>
+      <c r="E10" s="35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="36" t="inlineStr">
+        <is>
+          <t>?? ??</t>
+        </is>
+      </c>
+      <c r="G10" s="36" t="inlineStr">
+        <is>
+          <t>?? ? stale token 401</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="32" t="inlineStr">
+        <is>
+          <t>updated_by</t>
+        </is>
+      </c>
+      <c r="B11" s="32" t="inlineStr">
+        <is>
+          <t>uuid</t>
+        </is>
+      </c>
+      <c r="C11" s="33" t="n"/>
+      <c r="D11" s="34" t="n"/>
+      <c r="E11" s="35" t="n"/>
+      <c r="F11" s="36" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="G11" s="36" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="32" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="B12" s="32" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C12" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D12" s="34" t="n"/>
+      <c r="E12" s="35" t="inlineStr">
+        <is>
+          <t>CURRENT_TIMESTAMP</t>
+        </is>
+      </c>
+      <c r="F12" s="36" t="inlineStr">
+        <is>
+          <t>?? ??</t>
+        </is>
+      </c>
+      <c r="G12" s="36" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="32" t="n"/>
+      <c r="B13" s="32" t="n"/>
+      <c r="C13" s="33" t="n"/>
+      <c r="D13" s="34" t="n"/>
+      <c r="E13" s="35" t="n"/>
+      <c r="F13" s="36" t="n"/>
+      <c r="G13" s="36" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="32" t="n"/>
+      <c r="B14" s="32" t="n"/>
+      <c r="C14" s="33" t="n"/>
+      <c r="D14" s="34" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="36" t="n"/>
+      <c r="G14" s="36" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="32" t="n"/>
+      <c r="B15" s="32" t="n"/>
+      <c r="C15" s="33" t="n"/>
+      <c r="D15" s="34" t="n"/>
+      <c r="E15" s="35" t="n"/>
+      <c r="F15" s="36" t="n"/>
+      <c r="G15" s="36" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="40" customWidth="1" min="6" max="6"/>
+    <col width="38" customWidth="1" min="7" max="7"/>
+    <col width="8.710000000000001" customWidth="1" min="8" max="8"/>
+    <col width="24.86" customWidth="1" min="9" max="9"/>
+    <col width="38" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="14" t="inlineStr">
+        <is>
+          <t>TB_OPS_BLOCK - ?? ?? ??</t>
+        </is>
+      </c>
+      <c r="B1" s="53" t="n"/>
+      <c r="C1" s="53" t="n"/>
+      <c r="D1" s="53" t="n"/>
+      <c r="E1" s="53" t="n"/>
+      <c r="F1" s="53" t="n"/>
+      <c r="G1" s="54" t="n"/>
+    </row>
+    <row r="2" ht="8" customHeight="1">
+      <c r="A2" s="30" t="n"/>
+      <c r="B2" s="30" t="n"/>
+      <c r="C2" s="30" t="n"/>
+      <c r="D2" s="30" t="n"/>
+      <c r="E2" s="30" t="n"/>
+      <c r="F2" s="30" t="n"/>
+      <c r="G2" s="30" t="n"/>
+    </row>
+    <row r="3" ht="24" customHeight="1">
+      <c r="A3" s="31" t="inlineStr">
+        <is>
+          <t>컬럼명</t>
+        </is>
+      </c>
+      <c r="B3" s="31" t="inlineStr">
+        <is>
+          <t>데이터타입</t>
+        </is>
+      </c>
+      <c r="C3" s="31" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D3" s="31" t="inlineStr">
+        <is>
+          <t>KEY</t>
+        </is>
+      </c>
+      <c r="E3" s="31" t="inlineStr">
+        <is>
+          <t>기본값</t>
+        </is>
+      </c>
+      <c r="F3" s="31" t="inlineStr">
+        <is>
+          <t>설명</t>
+        </is>
+      </c>
+      <c r="G3" s="31" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1">
+      <c r="A4" s="32" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B4" s="32" t="inlineStr">
+        <is>
+          <t>uuid</t>
+        </is>
+      </c>
+      <c r="C4" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D4" s="34" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+      <c r="E4" s="35" t="inlineStr">
+        <is>
+          <t>gen_random_uuid()</t>
+        </is>
+      </c>
+      <c r="F4" s="36" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="G4" s="36" t="n"/>
+    </row>
+    <row r="5" ht="21" customHeight="1">
+      <c r="A5" s="32" t="inlineStr">
+        <is>
+          <t>tenant_id</t>
+        </is>
+      </c>
+      <c r="B5" s="32" t="inlineStr">
+        <is>
+          <t>uuid</t>
+        </is>
+      </c>
+      <c r="C5" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D5" s="34" t="inlineStr">
+        <is>
+          <t>FK</t>
+        </is>
+      </c>
+      <c r="E5" s="35" t="n"/>
+      <c r="F5" s="36" t="inlineStr">
+        <is>
+          <t>??? ID</t>
+        </is>
+      </c>
+      <c r="G5" s="36" t="n"/>
+    </row>
+    <row r="6" ht="21" customHeight="1">
+      <c r="A6" s="32" t="inlineStr">
+        <is>
+          <t>block_type</t>
+        </is>
+      </c>
+      <c r="B6" s="32" t="inlineStr">
+        <is>
+          <t>varchar(20)</t>
+        </is>
+      </c>
+      <c r="C6" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D6" s="34" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E6" s="35" t="n"/>
+      <c r="F6" s="36" t="inlineStr">
+        <is>
+          <t>?? ??</t>
+        </is>
+      </c>
+      <c r="G6" s="36" t="inlineStr">
+        <is>
+          <t>ACCOUNT/IP</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="21" customHeight="1">
+      <c r="A7" s="32" t="inlineStr">
+        <is>
+          <t>block_value</t>
+        </is>
+      </c>
+      <c r="B7" s="32" t="inlineStr">
+        <is>
+          <t>varchar(120)</t>
+        </is>
+      </c>
+      <c r="C7" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D7" s="34" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E7" s="35" t="n"/>
+      <c r="F7" s="36" t="inlineStr">
+        <is>
+          <t>?? ?? ?</t>
+        </is>
+      </c>
+      <c r="G7" s="36" t="n"/>
+    </row>
+    <row r="8" ht="21" customHeight="1">
+      <c r="A8" s="32" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="B8" s="32" t="inlineStr">
+        <is>
+          <t>varchar(20)</t>
+        </is>
+      </c>
+      <c r="C8" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D8" s="34" t="n"/>
+      <c r="E8" s="35" t="inlineStr">
+        <is>
+          <t>'ACTIVE'</t>
+        </is>
+      </c>
+      <c r="F8" s="36" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="G8" s="36" t="n"/>
+    </row>
+    <row r="9" ht="21" customHeight="1">
+      <c r="A9" s="32" t="inlineStr">
+        <is>
+          <t>reason</t>
+        </is>
+      </c>
+      <c r="B9" s="32" t="inlineStr">
+        <is>
+          <t>varchar(300)</t>
+        </is>
+      </c>
+      <c r="C9" s="33" t="n"/>
+      <c r="D9" s="34" t="n"/>
+      <c r="E9" s="35" t="n"/>
+      <c r="F9" s="36" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="G9" s="36" t="n"/>
+    </row>
+    <row r="10" ht="21" customHeight="1">
+      <c r="A10" s="32" t="inlineStr">
+        <is>
+          <t>expires_at</t>
+        </is>
+      </c>
+      <c r="B10" s="32" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C10" s="33" t="n"/>
+      <c r="D10" s="34" t="n"/>
+      <c r="E10" s="35" t="n"/>
+      <c r="F10" s="36" t="inlineStr">
+        <is>
+          <t>?? ??</t>
+        </is>
+      </c>
+      <c r="G10" s="36" t="inlineStr">
+        <is>
+          <t>NULL?? ?? ??</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="32" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="B11" s="32" t="inlineStr">
+        <is>
+          <t>uuid</t>
+        </is>
+      </c>
+      <c r="C11" s="33" t="n"/>
+      <c r="D11" s="34" t="n"/>
+      <c r="E11" s="35" t="n"/>
+      <c r="F11" s="36" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="G11" s="36" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="32" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="B12" s="32" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C12" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D12" s="34" t="n"/>
+      <c r="E12" s="35" t="inlineStr">
+        <is>
+          <t>CURRENT_TIMESTAMP</t>
+        </is>
+      </c>
+      <c r="F12" s="36" t="inlineStr">
+        <is>
+          <t>?? ??</t>
+        </is>
+      </c>
+      <c r="G12" s="36" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="32" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="B13" s="32" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C13" s="33" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D13" s="34" t="n"/>
+      <c r="E13" s="35" t="inlineStr">
+        <is>
+          <t>CURRENT_TIMESTAMP</t>
+        </is>
+      </c>
+      <c r="F13" s="36" t="inlineStr">
+        <is>
+          <t>?? ??</t>
+        </is>
+      </c>
+      <c r="G13" s="36" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="32" t="n"/>
+      <c r="B14" s="32" t="n"/>
+      <c r="C14" s="33" t="n"/>
+      <c r="D14" s="34" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="36" t="n"/>
+      <c r="G14" s="36" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="32" t="n"/>
+      <c r="B15" s="32" t="n"/>
+      <c r="C15" s="33" t="n"/>
+      <c r="D15" s="34" t="n"/>
+      <c r="E15" s="35" t="n"/>
+      <c r="F15" s="36" t="n"/>
+      <c r="G15" s="36" t="n"/>
+    </row>
+  </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>

--- a/docs/references/CS_AI_CHATBOT_DB.xlsx
+++ b/docs/references/CS_AI_CHATBOT_DB.xlsx
@@ -71,6 +71,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TB_COST_RATE_CARD" sheetId="62" state="visible" r:id="rId62"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TB_RBAC_MATRIX" sheetId="63" state="visible" r:id="rId63"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TB_OPS_BLOCK" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TB_AUDIT_EXPORT_JOB" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TB_AUDIT_EXPORT_CHUNK" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TB_SCHEDULER_LOCK" sheetId="67" state="visible" r:id="rId67"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'목차'!$A$7:$D$68</definedName>
@@ -1038,7 +1041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
@@ -1071,7 +1074,7 @@
     <row r="3" ht="21" customHeight="1">
       <c r="A3" s="15" t="inlineStr">
         <is>
-          <t>작성일: 2026-02-17</t>
+          <t>???: 2026-02-21</t>
         </is>
       </c>
       <c r="B3" s="15" t="n"/>
@@ -1081,7 +1084,7 @@
     <row r="4" ht="21" customHeight="1">
       <c r="A4" s="15" t="inlineStr">
         <is>
-          <t>총 테이블: 61개</t>
+          <t>? ???: 66?</t>
         </is>
       </c>
       <c r="B4" s="15" t="n"/>
@@ -1091,7 +1094,7 @@
     <row r="5" ht="21" customHeight="1">
       <c r="A5" s="16" t="inlineStr">
         <is>
-          <t>그룹별: AI 설정/정책 13개, Billing/Quota 6개, Ops/Observability 1개, RAG/안전 5개, VectorOps 1개, 공통 2개, 권한/테넌트 10개, 운영/감사 7개, 지식베이스 8개, 채팅/상담 8개</t>
+          <t>??? ??? ?? ?? ???? ?? ?? ??(?? ?? ??)</t>
         </is>
       </c>
       <c r="B5" s="16" t="n"/>
@@ -2344,6 +2347,106 @@
       <c r="D68" s="69" t="inlineStr">
         <is>
           <t>Billing/Quota</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>62</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TB_RBAC_MATRIX</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>TB_RBAC_MATRIX</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>63</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TB_OPS_BLOCK</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>TB_OPS_BLOCK</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>??/??</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>64</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TB_AUDIT_EXPORT_JOB</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>TB_AUDIT_EXPORT_JOB</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>??/??</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>65</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>TB_AUDIT_EXPORT_CHUNK</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>TB_AUDIT_EXPORT_CHUNK</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>??/??</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>66</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TB_SCHEDULER_LOCK</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>TB_SCHEDULER_LOCK</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>??/??</t>
         </is>
       </c>
     </row>
@@ -23325,6 +23428,1195 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>TB_AUDIT_EXPORT_JOB - table specification</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>?????</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>KEY</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>uuid</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Export job ID</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>V7 async export spool</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>tenant_id</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>uuid</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>FK</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tenant ID</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>FK -&gt; TB_TENANT.id</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>requested_by</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>uuid</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Requested user ID</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>varchar(20)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Job status</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>PENDING/RUNNING/DONE/FAILED/EXPIRED</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>export_format</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>varchar(20)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Export format</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>json|csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>from_utc</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Range start UTC</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>to_utc</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Range end UTC</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>row_limit</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Row limit</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>tenant/date/row guardrail</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>max_bytes</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5242880</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Max payload bytes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>max_duration_sec</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Max processing duration(sec)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>row_count</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Exported row count</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>total_bytes</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Exported total bytes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>error_code</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>varchar(80)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Failure code</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>error_message</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>varchar(500)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Failure detail</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>expires_at</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Payload expiry UTC</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>default TTL 24h</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>trace_id</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>uuid</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Trace ID</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>trace linkage mandatory</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>CURRENT_TIMESTAMP</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Created at UTC</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>started_at</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Worker started at UTC</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>completed_at</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Completed at UTC</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>TB_AUDIT_EXPORT_CHUNK - table specification</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>?????</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>KEY</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>job_id</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>uuid</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PK/FK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Export job ID</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>FK -&gt; TB_AUDIT_EXPORT_JOB.id, ON DELETE CASCADE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>chunk_no</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chunk order</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>payload_bytes</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>bytea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chunk payload bytes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>sanitized payload only</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>payload_hash</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>varchar(128)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chunk SHA-256</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CURRENT_TIMESTAMP</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Created at UTC</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>TB_SCHEDULER_LOCK - table specification</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>?????</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>KEY</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>lock_key</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>varchar(120)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Scheduler lock key</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>owner_id</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>uuid</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Lock owner instance ID</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>lease_until_utc</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lease expiration UTC</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>fencing_token</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>bigint</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fencing token</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>monotonic</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>last_heartbeat_utc</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Last heartbeat UTC</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>V8 self-healing</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>last_recovered_at</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Last recovery UTC</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>V8 self-healing</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>recovery_count</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>bigint</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Recovery count</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>V8 self-healing</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CURRENT_TIMESTAMP</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Updated at UTC</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
